--- a/p4_01_analyse/tableau_rapport.xlsx
+++ b/p4_01_analyse/tableau_rapport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiane/Desktop/FORMATION_DEV_WEB/Projet_4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiane/Desktop/FORMATION_DEV_WEB/Projet_4/p4_01_analyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAA92FCD-3BFE-9244-BF31-0A02A971F70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C681CECD-162C-7646-9907-90B5328CCC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20020" yWindow="500" windowWidth="20880" windowHeight="21300" xr2:uid="{56F3D3DE-C23C-9444-A4C6-AE070D1C0921}"/>
+    <workbookView xWindow="11260" yWindow="500" windowWidth="20880" windowHeight="21180" xr2:uid="{56F3D3DE-C23C-9444-A4C6-AE070D1C0921}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>SEO</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Le css sur la page 2 n'était pas bien relié à cause d'une faut dans les balises link.</t>
+  </si>
+  <si>
+    <t>La taille des images mal choisi</t>
+  </si>
+  <si>
+    <t>Les balises sémantiques aident le navigateur ainsi que le moteur de recherche à comprendre comment est structuré une page.</t>
   </si>
 </sst>
 </file>
@@ -570,7 +576,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,7 +620,9 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
@@ -736,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>35</v>
